--- a/biology/Botanique/Muscadet-coteaux-de-la-loire/Muscadet-coteaux-de-la-loire.xlsx
+++ b/biology/Botanique/Muscadet-coteaux-de-la-loire/Muscadet-coteaux-de-la-loire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le muscadet-coteaux-de-la-loire est un vin blanc d'appellation d'origine contrôlée produit dans le Loire-Atlantique et sur une partie du Maine-et-Loire.
@@ -513,7 +525,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce vignoble, classé AOC depuis le 14 novembre 1936, couvrait en 2005 une superficie de 200 hectares sur la rive droite des bords de Loire entre Nantes et Ancenis dans le département de la Loire-Atlantique, débordant sur la rive gauche essentiellement dans le département de Maine-et-Loire. Le décret du 9 octobre 1995 a remplacé l'ancienne dénomination de muscadet-des-coteaux-de-la-loire.
 Les vins du Muscadet sont vinifiés en blanc sec à partir d'un cépage unique, le melon (appelé « muscadet » localement, on le retrouve aussi sous les dénominations de melon de Bourgogne, gamay de Bourgogne ou melon musqué). Les vins doivent présenter un titre alcoométrique naturel de 9 % vol. et le moût doit présenter une richesse en sucre de 144 g/l. Le rendement de base est fixé à 55 hl/ha. La densité des plantations doit être comprise entre 6.500 et 7 500 pieds/ha.
@@ -546,7 +560,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Seuls ont droit à l'appellation muscadet-coteaux-de-la-loire les vins récoltés sur les territoires :
 17 communes de la Loire-Atlantique : Ancenis, Anetz, Barbechat, Carquefou, Le Cellier, Couffé, Ligné, Mauves-sur-Loire, Mésanger, Mouzeil, Oudon, Saint-Géréon, Saint-Herblon, Saint-Sébastien-sur-Loire, Teillé, Thouaré-sur-Loire et Varades.
